--- a/docs/CS3300 - Group Project - Requirements Spreadsheet.xlsx
+++ b/docs/CS3300 - Group Project - Requirements Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccsoffice365-my.sharepoint.com/personal/wmanison_uccs_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA2C0FEB-6599-4CAA-8174-0FD2C6470692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72313AC3-8F48-4765-AA5F-9EB95D59C586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" xr2:uid="{CAB5D44A-E176-404C-B398-BEAD2D9E6884}"/>
   </bookViews>
@@ -1182,6 +1182,27 @@
     <xf numFmtId="16" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1190,27 +1211,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1643,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B900A37F-814E-4AF4-9047-E946E2A67EEB}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F3"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -1663,7 +1663,7 @@
     <col min="17" max="17" width="44" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="18.75">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="18.95">
       <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
@@ -1684,20 +1684,20 @@
       <c r="P1" s="18"/>
       <c r="Q1" s="20"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" ht="15.95">
       <c r="A2" s="21"/>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -1710,7 +1710,7 @@
       <c r="P3" s="12"/>
       <c r="Q3" s="26"/>
     </row>
-    <row r="4" spans="1:17" s="2" customFormat="1">
+    <row r="4" spans="1:17" s="2" customFormat="1" ht="17.100000000000001">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -1756,7 +1756,7 @@
       <c r="P5" s="12"/>
       <c r="Q5" s="26"/>
     </row>
-    <row r="6" spans="1:17" s="2" customFormat="1">
+    <row r="6" spans="1:17" s="2" customFormat="1" ht="15.95">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -1775,7 +1775,7 @@
       <c r="P6" s="12"/>
       <c r="Q6" s="26"/>
     </row>
-    <row r="7" spans="1:17" s="2" customFormat="1">
+    <row r="7" spans="1:17" s="2" customFormat="1" ht="15.95">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1794,7 +1794,7 @@
       <c r="P7" s="12"/>
       <c r="Q7" s="26"/>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1">
+    <row r="8" spans="1:17" s="2" customFormat="1" ht="15.95">
       <c r="A8" s="78" t="s">
         <v>6</v>
       </c>
@@ -1875,7 +1875,7 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="83"/>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1">
+    <row r="11" spans="1:17" s="2" customFormat="1" ht="17.100000000000001">
       <c r="A11" s="93"/>
       <c r="B11" s="94"/>
       <c r="C11" s="60"/>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="Q11" s="84"/>
     </row>
-    <row r="12" spans="1:17" ht="15">
+    <row r="12" spans="1:17" ht="15.95">
       <c r="A12" s="66" t="s">
         <v>21</v>
       </c>
@@ -1946,7 +1946,7 @@
       <c r="P13" s="34"/>
       <c r="Q13" s="13"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" ht="17.100000000000001">
       <c r="A14" s="36"/>
       <c r="B14" s="37" t="s">
         <v>24</v>
@@ -1973,7 +1973,7 @@
       <c r="P14" s="34"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" ht="17.100000000000001">
       <c r="A15" s="34"/>
       <c r="B15" s="34" t="s">
         <v>26</v>
@@ -2000,7 +2000,7 @@
       <c r="P15" s="34"/>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" ht="17.100000000000001">
       <c r="A16" s="36"/>
       <c r="B16" s="37" t="s">
         <v>27</v>
@@ -2021,7 +2021,7 @@
       <c r="P16" s="34"/>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" ht="17.100000000000001">
       <c r="A17" s="69" t="s">
         <v>28</v>
       </c>
@@ -2048,7 +2048,7 @@
       <c r="P17" s="34"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" ht="17.100000000000001">
       <c r="A18" s="39"/>
       <c r="B18" s="34" t="s">
         <v>29</v>
@@ -2079,7 +2079,7 @@
       <c r="P18" s="34"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" ht="17.100000000000001">
       <c r="A19" s="39"/>
       <c r="B19" s="34" t="s">
         <v>30</v>
@@ -2114,7 +2114,7 @@
       <c r="P19" s="34"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" ht="17.100000000000001">
       <c r="A20" s="39"/>
       <c r="B20" s="34" t="s">
         <v>32</v>
@@ -2141,7 +2141,7 @@
       <c r="P20" s="34"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" ht="17.100000000000001">
       <c r="A21" s="39"/>
       <c r="B21" s="34" t="s">
         <v>33</v>
@@ -2174,7 +2174,7 @@
       <c r="P21" s="34"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" ht="17.100000000000001">
       <c r="A22" s="39"/>
       <c r="B22" s="34" t="s">
         <v>35</v>
@@ -2207,7 +2207,7 @@
       <c r="P22" s="34"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" ht="17.100000000000001">
       <c r="A23" s="39"/>
       <c r="B23" s="34" t="s">
         <v>36</v>
@@ -2240,7 +2240,7 @@
       <c r="P23" s="34"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" ht="17.100000000000001">
       <c r="A24" s="39"/>
       <c r="B24" s="34" t="s">
         <v>37</v>
@@ -2275,7 +2275,7 @@
       <c r="P24" s="34"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17" ht="43.5">
+    <row r="25" spans="1:17" ht="48">
       <c r="A25" s="39"/>
       <c r="B25" s="34" t="s">
         <v>38</v>
@@ -2312,7 +2312,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" ht="17.100000000000001">
       <c r="A26" s="39"/>
       <c r="B26" s="34" t="s">
         <v>40</v>
@@ -2339,7 +2339,7 @@
       <c r="P26" s="34"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" ht="15.95">
       <c r="A27" s="71" t="s">
         <v>42</v>
       </c>
@@ -2362,7 +2362,7 @@
       <c r="P27" s="34"/>
       <c r="Q27" s="13"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" ht="17.100000000000001">
       <c r="A28" s="39"/>
       <c r="B28" s="34" t="s">
         <v>43</v>
@@ -2389,7 +2389,7 @@
       <c r="P28" s="34"/>
       <c r="Q28" s="13"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" ht="17.100000000000001">
       <c r="A29" s="39"/>
       <c r="B29" s="34" t="s">
         <v>44</v>
@@ -2420,7 +2420,7 @@
       <c r="P29" s="34"/>
       <c r="Q29" s="13"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" ht="15.95">
       <c r="A30" s="39"/>
       <c r="B30" s="34"/>
       <c r="C30" s="65"/>
@@ -2441,7 +2441,7 @@
       <c r="P30" s="34"/>
       <c r="Q30" s="13"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" ht="15.95">
       <c r="A31" s="39"/>
       <c r="B31" s="34"/>
       <c r="C31" s="65"/>
@@ -2462,7 +2462,7 @@
       <c r="P31" s="34"/>
       <c r="Q31" s="13"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" ht="17.100000000000001">
       <c r="A32" s="39"/>
       <c r="B32" s="14" t="s">
         <v>45</v>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="D38" s="65"/>
       <c r="E38" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F38" s="34"/>
       <c r="G38" s="16" t="s">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="D40" s="65"/>
       <c r="E40" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F40" s="34"/>
       <c r="G40" s="16" t="s">
@@ -2730,25 +2730,25 @@
       <c r="Q40" s="13"/>
     </row>
     <row r="41" spans="1:17" ht="15.6" customHeight="1">
-      <c r="A41" s="116" t="s">
+      <c r="A41" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="117"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="117"/>
-      <c r="F41" s="117"/>
-      <c r="G41" s="117"/>
-      <c r="H41" s="117"/>
-      <c r="I41" s="117"/>
-      <c r="J41" s="117"/>
-      <c r="K41" s="117"/>
-      <c r="L41" s="117"/>
-      <c r="M41" s="117"/>
-      <c r="N41" s="117"/>
-      <c r="O41" s="117"/>
-      <c r="P41" s="117"/>
-      <c r="Q41" s="118"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="114"/>
+      <c r="L41" s="114"/>
+      <c r="M41" s="114"/>
+      <c r="N41" s="114"/>
+      <c r="O41" s="114"/>
+      <c r="P41" s="114"/>
+      <c r="Q41" s="115"/>
     </row>
     <row r="42" spans="1:17" ht="15.6" customHeight="1">
       <c r="A42" s="40"/>
@@ -3009,25 +3009,25 @@
       <c r="Q49" s="46"/>
     </row>
     <row r="50" spans="1:17" ht="15.6" customHeight="1">
-      <c r="A50" s="113" t="s">
+      <c r="A50" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="114"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="114"/>
-      <c r="E50" s="114"/>
-      <c r="F50" s="114"/>
-      <c r="G50" s="114"/>
-      <c r="H50" s="114"/>
-      <c r="I50" s="114"/>
-      <c r="J50" s="114"/>
-      <c r="K50" s="114"/>
-      <c r="L50" s="114"/>
-      <c r="M50" s="114"/>
-      <c r="N50" s="114"/>
-      <c r="O50" s="114"/>
-      <c r="P50" s="114"/>
-      <c r="Q50" s="115"/>
+      <c r="B50" s="121"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="121"/>
+      <c r="F50" s="121"/>
+      <c r="G50" s="121"/>
+      <c r="H50" s="121"/>
+      <c r="I50" s="121"/>
+      <c r="J50" s="121"/>
+      <c r="K50" s="121"/>
+      <c r="L50" s="121"/>
+      <c r="M50" s="121"/>
+      <c r="N50" s="121"/>
+      <c r="O50" s="121"/>
+      <c r="P50" s="121"/>
+      <c r="Q50" s="122"/>
     </row>
     <row r="51" spans="1:17" s="9" customFormat="1" ht="15.6" customHeight="1">
       <c r="A51" s="42"/>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="D57" s="65"/>
       <c r="E57" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F57" s="43"/>
       <c r="G57" s="44" t="s">
@@ -3289,36 +3289,36 @@
       <c r="P58" s="43"/>
       <c r="Q58" s="46"/>
     </row>
-    <row r="59" spans="1:17" ht="30">
+    <row r="59" spans="1:17" ht="33.950000000000003">
       <c r="A59" s="50" t="s">
         <v>88</v>
       </c>
       <c r="B59" s="51"/>
       <c r="C59" s="51"/>
-      <c r="D59" s="121"/>
-      <c r="E59" s="121"/>
-      <c r="F59" s="121"/>
-      <c r="G59" s="121"/>
-      <c r="H59" s="121"/>
-      <c r="I59" s="121"/>
-      <c r="J59" s="121"/>
-      <c r="K59" s="121"/>
-      <c r="L59" s="121"/>
-      <c r="M59" s="121"/>
-      <c r="N59" s="121"/>
-      <c r="O59" s="121"/>
-      <c r="P59" s="121"/>
-      <c r="Q59" s="121"/>
+      <c r="D59" s="119"/>
+      <c r="E59" s="119"/>
+      <c r="F59" s="119"/>
+      <c r="G59" s="119"/>
+      <c r="H59" s="119"/>
+      <c r="I59" s="119"/>
+      <c r="J59" s="119"/>
+      <c r="K59" s="119"/>
+      <c r="L59" s="119"/>
+      <c r="M59" s="119"/>
+      <c r="N59" s="119"/>
+      <c r="O59" s="119"/>
+      <c r="P59" s="119"/>
+      <c r="Q59" s="119"/>
     </row>
     <row r="60" spans="1:17" s="9" customFormat="1" ht="15.6" customHeight="1">
       <c r="A60" s="42"/>
       <c r="B60" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C60" s="119">
+      <c r="C60" s="117">
         <v>45756</v>
       </c>
-      <c r="D60" s="120"/>
+      <c r="D60" s="118"/>
       <c r="E60" s="33" t="s">
         <v>25</v>
       </c>
@@ -3523,7 +3523,7 @@
       <c r="P66" s="106"/>
       <c r="Q66" s="107"/>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" ht="15.95">
       <c r="F67" s="53"/>
     </row>
     <row r="69" spans="1:17" ht="15.6" customHeight="1"/>
@@ -3556,18 +3556,26 @@
         <v>101</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" ht="17.100000000000001">
       <c r="G73" s="34" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="30">
+    <row r="74" spans="1:17" ht="17.100000000000001">
       <c r="G74" s="34" t="s">
         <v>103</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="125">
+    <mergeCell ref="A50:Q50"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C40:D40"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="H64:I64"/>
     <mergeCell ref="H60:I60"/>
@@ -3588,11 +3596,6 @@
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="D59:Q59"/>
-    <mergeCell ref="A50:Q50"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A41:Q41"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="H24:I24"/>
@@ -3602,10 +3605,6 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="H32:I32"/>
     <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C40:D40"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C20:D20"/>
@@ -3629,6 +3628,7 @@
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A41:Q41"/>
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="C71:D71"/>
     <mergeCell ref="C72:D72"/>
@@ -3694,7 +3694,7 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A13:B13"/>
   </mergeCells>
-  <conditionalFormatting sqref="C13:C15 C17:C32 C34:C40 C51:C58 C67:C107 C60:C65 C42:C49">
+  <conditionalFormatting sqref="C13:C15 C17:C32 C34:C40 C42:C49 C51:C58 C60:C65 C67:C107">
     <cfRule type="expression" dxfId="9" priority="11">
       <formula>AND(C13&lt;=TODAY()-1, C13&gt;=TODAY()-7, C13&lt;&gt;"")</formula>
     </cfRule>
@@ -3702,7 +3702,7 @@
       <formula>AND(C13&lt;TODAY()-7, C13&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E32 E34:E40 E67:E107 E51:E58 E60:E65 E42:E49">
+  <conditionalFormatting sqref="E13:E32 E34:E40 E42:E49 E51:E58 E60:E65 E67:E107">
     <cfRule type="expression" dxfId="7" priority="8">
       <formula>E13="Need-To-Start"</formula>
     </cfRule>
@@ -3713,7 +3713,7 @@
       <formula>E13="In-Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H32 H34:H40 H51:H58 H67:H107 H60:H65 H42:H49">
+  <conditionalFormatting sqref="H13:H32 H34:H40 H42:H49 H51:H58 H60:H65 H67:H107">
     <cfRule type="expression" dxfId="4" priority="1">
       <formula>H13="Everyone"</formula>
     </cfRule>
@@ -3744,15 +3744,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_activity xmlns="b48f6772-6186-4b2d-b1f8-8bdb84d331dd" xsi:nil="true"/>
@@ -3760,7 +3751,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B727AC6665E0B4408A29B84063219765" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="12c79aabf1855d0b59237571a585c0a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b48f6772-6186-4b2d-b1f8-8bdb84d331dd" xmlns:ns4="1f95adff-89de-43be-b3b0-bc1e943720d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="50f2d8a3ac2e46a2b58ce475fab7756f" ns3:_="" ns4:_="">
     <xsd:import namespace="b48f6772-6186-4b2d-b1f8-8bdb84d331dd"/>
@@ -3981,14 +3972,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{849EFB40-033C-47FC-BCF7-652C93E8B88D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF3B728B-395D-4DBD-B632-2B3622DCC8DE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF3B728B-395D-4DBD-B632-2B3622DCC8DE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{873004B4-B4BD-43F4-B3DF-0DBF082D967B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{873004B4-B4BD-43F4-B3DF-0DBF082D967B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{849EFB40-033C-47FC-BCF7-652C93E8B88D}"/>
 </file>